--- a/TableS_bp_disagreements.xlsx
+++ b/TableS_bp_disagreements.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="898">
   <si>
     <t xml:space="preserve">PDB_ID</t>
   </si>
@@ -469,7 +469,7 @@
     <t xml:space="preserve">1.A.200.</t>
   </si>
   <si>
-    <t xml:space="preserve">AA=cHW(ClaRNA),cWW(RNAView)</t>
+    <t xml:space="preserve">AA=cWH(ClaRNA),cWW(RNAView)</t>
   </si>
   <si>
     <t xml:space="preserve">HW_cis(0.66,1200-1149)</t>
@@ -592,30 +592,6 @@
     <t xml:space="preserve">G-A Ss/Ww pairing parallel trans X</t>
   </si>
   <si>
-    <t xml:space="preserve">6n7r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.U.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.G.541.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GU=tHS(ClaRNA),tSH(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.U.11.-R.G.541.(---)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.U.11.-R.G.541.(ntHS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH_tran(0.54,R541-R11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H/S tran !1H(b_b)</t>
-  </si>
-  <si>
     <t xml:space="preserve">6th6</t>
   </si>
   <si>
@@ -799,30 +775,6 @@
     <t xml:space="preserve">Aa.A.1203.-Aa.C.1306.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Aa.A.1239.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.G.1322.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSW(ClaRNA),tWS(DSSR,MC-Annotate,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1239.-Aa.G.1322.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1239.-Aa.G.1322.(ntWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW_tran(0.5,D1322-D1239)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/S tran !1H(b_b).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G Ww/Sw pairing parallel trans one_hbond</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aa.U.1267.</t>
   </si>
   <si>
@@ -2347,7 +2299,7 @@
     <t xml:space="preserve">B5.G.2054.</t>
   </si>
   <si>
-    <t xml:space="preserve">AG=tHS(DSSR),tSW(ClaRNA),tWS(FR3D,MC-Annotate,RNAView)</t>
+    <t xml:space="preserve">AG=tHS(DSSR),tWS(ClaRNA,FR3D,MC-Annotate,RNAView)</t>
   </si>
   <si>
     <t xml:space="preserve">B5.A.1214.-B5.G.2054.(tHS)</t>
@@ -2877,10 +2829,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3025,7 +2977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -3054,7 +3006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -3129,7 +3081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -3158,7 +3110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -3187,7 +3139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -3216,7 +3168,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -3288,7 +3240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -3337,7 +3289,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -3389,7 +3341,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>134</v>
       </c>
@@ -3418,7 +3370,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -3447,7 +3399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
@@ -3490,7 +3442,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>157</v>
       </c>
@@ -3571,7 +3523,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>172</v>
       </c>
@@ -3600,7 +3552,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>172</v>
       </c>
@@ -3629,7 +3581,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>190</v>
       </c>
@@ -3648,115 +3600,115 @@
       <c r="F29" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>203</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>106</v>
@@ -3764,77 +3716,74 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="H34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="H35" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>231</v>
@@ -3842,576 +3791,567 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="H37" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G38" s="2" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="H39" s="2" t="s">
-        <v>251</v>
+        <v>14</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="I41" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="2" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H43" s="2" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>291</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>298</v>
+        <v>14</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>294</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>106</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>313</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>132</v>
+        <v>310</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="H53" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>353</v>
+        <v>104</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>132</v>
@@ -4419,1630 +4359,1633 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>352</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="I60" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>132</v>
+        <v>14</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I67" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>395</v>
+        <v>220</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>44</v>
+        <v>196</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>57</v>
+        <v>361</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>114</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>198</v>
+        <v>404</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>88</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>198</v>
+        <v>411</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="E73" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="H73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="H74" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>426</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>431</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>433</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>205</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>433</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>14</v>
+        <v>435</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>106</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="H79" s="2" t="s">
-        <v>451</v>
+        <v>196</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>452</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>455</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>88</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>228</v>
+        <v>336</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>231</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>414</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>303</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>466</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>355</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>433</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>60</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>484</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="I89" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="H90" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I90" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="E91" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="H91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E91" s="2" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="E92" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="F92" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="H92" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="E93" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="H93" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I93" s="2" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="D94" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="H94" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E94" s="2" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I94" s="2" t="s">
+      <c r="D95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>526</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>295</v>
+        <v>529</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>200</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>302</v>
+        <v>44</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="F99" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="H99" s="2" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>388</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="E101" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="I101" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C101" s="1" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="D102" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="G102" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="H102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I102" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="F103" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="H103" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I103" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E103" s="2" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="D104" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="G104" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="H104" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>579</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D106" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="H106" s="2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>587</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>340</v>
+        <v>589</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="I108" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E108" s="2" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="D109" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D113" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="H113" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>132</v>
+        <v>196</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="F117" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>644</v>
-      </c>
       <c r="H117" s="2" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>114</v>
+        <v>589</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="F119" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="H119" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>605</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>419</v>
+        <v>650</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>228</v>
+        <v>653</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>113</v>
+        <v>655</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>443</v>
+        <v>658</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>446</v>
+        <v>589</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>106</v>
@@ -6050,1029 +5993,1032 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>605</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>106</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>687</v>
+        <v>253</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>527</v>
+        <v>682</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>674</v>
+        <v>193</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>693</v>
+        <v>686</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>313</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>527</v>
+        <v>682</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>269</v>
+        <v>689</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>697</v>
+        <v>690</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>273</v>
+        <v>692</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>702</v>
+        <v>696</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="H132" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I132" s="2" t="s">
         <v>708</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>716</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>718</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>721</v>
+        <v>92</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>723</v>
+        <v>715</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>716</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>430</v>
+        <v>728</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>433</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>739</v>
+        <v>336</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>740</v>
+        <v>733</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>734</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>741</v>
+        <v>132</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>745</v>
+        <v>104</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>28</v>
+        <v>132</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>352</v>
+        <v>741</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>750</v>
+        <v>743</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>744</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>751</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>132</v>
+        <v>286</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>757</v>
+        <v>414</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>298</v>
+        <v>14</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>539</v>
+        <v>752</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>755</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="G145" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="H145" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="H145" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="D146" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="F146" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="H146" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="D147" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="H146" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>786</v>
-      </c>
       <c r="H147" s="2" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>114</v>
+        <v>324</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>228</v>
+        <v>781</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>790</v>
+        <v>782</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>783</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>113</v>
+        <v>310</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>231</v>
+        <v>784</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="H150" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="I150" s="2" t="s">
-        <v>800</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>104</v>
+        <v>795</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>796</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>132</v>
+        <v>798</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>49</v>
+        <v>602</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>106</v>
+        <v>803</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>814</v>
+        <v>132</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>618</v>
+        <v>40</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>817</v>
+        <v>810</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>812</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>818</v>
+        <v>44</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>819</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="H155" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>828</v>
-      </c>
       <c r="H156" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>313</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="H157" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I157" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="H158" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="D159" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="H158" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B159" s="1" t="s">
+      <c r="G159" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="H159" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="I159" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="H159" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I159" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="H160" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="I160" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E160" s="2" t="s">
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="H160" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B161" s="1" t="s">
+      <c r="E161" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="F161" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E161" s="2" t="s">
+      <c r="H161" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="I161" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="F162" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>862</v>
-      </c>
       <c r="H162" s="2" t="s">
-        <v>863</v>
+        <v>14</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>864</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>867</v>
+        <v>49</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>870</v>
+        <v>14</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>871</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>874</v>
+        <v>104</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>14</v>
@@ -7083,210 +7029,161 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>878</v>
+        <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>106</v>
+        <v>870</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>104</v>
+        <v>873</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>874</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>882</v>
+        <v>875</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>876</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>106</v>
+        <v>877</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="H167" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="I167" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167" s="2" t="s">
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="H167" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I167" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B168" s="1" t="s">
+      <c r="D168" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="F168" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>892</v>
-      </c>
       <c r="H168" s="2" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>893</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>896</v>
+        <v>40</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>898</v>
+        <v>892</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>893</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>899</v>
+        <v>44</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>900</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/TableS_bp_disagreements.xlsx
+++ b/TableS_bp_disagreements.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="953">
   <si>
     <t xml:space="preserve">PDB_ID</t>
   </si>
@@ -817,13 +817,31 @@
     <t xml:space="preserve">W/S tran !1H(b_b)</t>
   </si>
   <si>
+    <t xml:space="preserve">Aa.A.1370.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2061.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=tSS(ClaRNA),tWS(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1370.-BA.G.2061.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1370.-BA.G.2061.(ntSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.81,A2061-D1370)</t>
+  </si>
+  <si>
     <t xml:space="preserve">BA.G.178.</t>
   </si>
   <si>
     <t xml:space="preserve">BA.A.1500.</t>
   </si>
   <si>
-    <t xml:space="preserve">AG=cSS(RNAView),cWS(DSSR)</t>
+    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cWS(DSSR)</t>
   </si>
   <si>
     <t xml:space="preserve">BA.G.178.-BA.A.1500.(cSW)</t>
@@ -832,6 +850,9 @@
     <t xml:space="preserve">BA.G.178.-BA.A.1500.(ncSS)</t>
   </si>
   <si>
+    <t xml:space="preserve">SS_cis(0.55,A178-A1500)</t>
+  </si>
+  <si>
     <t xml:space="preserve">S/S cis n/a</t>
   </si>
   <si>
@@ -859,732 +880,861 @@
     <t xml:space="preserve">BA.G.241.</t>
   </si>
   <si>
+    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cSW(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.186.-BA.G.241.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.186.-BA.G.241.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.62,A186-A241)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/S cis !1H(b_b).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.190.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2190.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.190.-BA.C.2190.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/S tran syn !(b_s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-C Ww/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.192.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.242.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.192.-BA.A.242.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.192.-BA.A.242.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.217.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.U.458.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU=cSH(ClaRNA),cWS(DSSR,FR3D,MC-Annotate,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.217.-BA.U.458.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH_cis(0.8,A217-A458),WS_cis(0.73,A217-A458)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/S cis n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-U Wh/Ss Ww/O2' pairing antiparallel cis one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.583.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1354.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.583.-BA.G.1354.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.583.-BA.G.1354.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.93,A583-A1354)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-G Ss/Ss Ww/O2' pairing parallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.615.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.1281.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.615.-BA.C.1281.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.615.-BA.C.1281.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.726.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2522.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.726.-BA.G.2522.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.726.-BA.G.2522.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.76,A726-A2522)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.770.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2475.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA=cWS(ClaRNA,DSSR,FR3D,RNAView),tWS(MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.770.-BA.A.2475.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS_cis(0.81,A770-A2475),SH_cis(0.79,A770-A2475)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-A Wh/Ss Ww/O2' pairing antiparallel trans one_hbond 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.802.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2181.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.802.-BA.G.2181.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.802.-BA.G.2181.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.9,A802-A2181)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-G Bs/Ss Ww/O2' pairing parallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.825.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1779.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.825.-BA.G.1779.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.825.-BA.G.1779.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.71,A825-A1779)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.886.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2094.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cSS(RNAView),cWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.886.-BA.A.2094.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.886.-BA.A.2094.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/S cis syn !(b_s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-A O2'/Ss pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.898.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1489.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.898.-BA.A.1489.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.898.-BA.A.1489.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.89,A898-A1489)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A Sw/Ss O2'/Ww pairing parallel trans one_hbond 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.909.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1904.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.909.-BA.G.1904.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.909.-BA.G.1904.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.91,A909-A1904)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1040.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2380.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA=tSS(FR3D),tWS(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1040.-BA.A.2380.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1040.-BA.A.2380.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-A Ww/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1088.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2599.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1088.-BA.C.2599.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1088.-BA.C.2599.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1089.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1089.-BA.C.2599.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1161.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2569.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1161.-BA.G.2569.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1161.-BA.G.2569.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.79,A1161-A2569)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1423.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.1795.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cWS(FR3D),tWS(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1423.-BA.C.1795.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1423.-BA.C.1795.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1474.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1531.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1474.-BA.A.1531.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1474.-BA.A.1531.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.93,A1474-A1531)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1482.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1516.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1482.-BA.A.1516.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1482.-BA.A.1516.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.83,A1482-A1516)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.U.1540.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1619.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.U.1540.-BA.A.1619.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U-A O2'/Ww pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1562.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1658.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1562.-BA.G.1658.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1562.-BA.G.1658.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.89,A1562-A1658)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-G Ww/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.1857.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2984.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.1857.-BA.A.2984.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.1857.-BA.A.2984.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1878.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2994.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=tSS(ClaRNA,RNAView),tWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1878.-BA.A.2994.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1878.-BA.A.2994.(ntSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.85,A1878-A2994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1921.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2013.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1921.-BA.A.2013.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1921.-BA.A.2013.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.74,A1921-A2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2065.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2664.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2065.-BA.C.2664.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2065.-BA.C.2664.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2079.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2696.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2079.-BA.G.2696.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2079.-BA.G.2696.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.76,A2079-A2696)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2540.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2702.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2540.-BA.A.2702.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2540.-BA.A.2702.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.87,A2540-A2702)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2611.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2657.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG=tSS(FR3D,RNAView),tWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2611.-BA.G.2657.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2611.-BA.G.2657.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/S tran !1H(b_b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6vwl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.1054.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.G.58.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG=tSS(RNAView),tWS(DSSR,MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.1054.-4.G.58.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.1054.-4.G.58.(ntWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-G Ws/Sw pairing parallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6zu5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L50.A.1760.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1295.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA=tSS(FR3D),tSW(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L50.A.1760.-S60.A.1295.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L50.A.1760.-S60.A.1295.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-A O2'/Ww pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.990.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.11.-S60.A.990.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.11.-S60.A.990.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.495.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=tSS(ClaRNA,FR3D),tWS(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.14.-S60.A.495.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.6,D14-D495)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.75.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.129.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=cSS(ClaRNA,FR3D),cWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.75.-S60.A.129.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.75.-S60.A.129.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.64,D75-D129)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A Ss/Bs O2'/Ss pairing antiparallel cis one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.351.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.405.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cWS(ClaRNA,DSSR,FR3D,RNAView),tWS(MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.351.-S60.A.405.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_cis(0.61,D351-D405)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/W cis n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-A Ss/Wh O2'/Ww pairing antiparallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.425.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.432.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.425.-S60.A.432.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.425.-S60.A.432.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.92,D425-D432)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.431.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.466.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.431.-S60.C.466.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.431.-S60.C.466.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.651.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.686.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.651.-S60.C.686.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.688.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.1388.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.688.-S60.G.1388.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.688.-S60.G.1388.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.55,D688-D1388)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-G Ww/Ss pairing antiparallel cis 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.779.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.834.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.779.-S60.A.834.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.779.-S60.A.834.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.836.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.836.-S60.A.990.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.836.-S60.A.990.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.U.866.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1241.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU=tSS(ClaRNA,FR3D),tWS(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.U.866.-S60.A.1241.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.53,D866-D1241)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U-A O2'/Ww O2'/Bh pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1198.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.1238.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cHW(ClaRNA),tWS(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1198.-S60.C.1238.(tW.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1198.-S60.C.1238.(ntWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW_cis(0.57,D1198-D1238)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.1360.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1381.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=tSS(FR3D),tWS(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.1360.-S60.A.1381.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7aih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.G.220.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.G.881.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GG=tWH(DSSR),tWS(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.G.220.-1.G.881.(tWH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-G Ww/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.U.260.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A.625.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU=tSS(FR3D),tWS(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.U.260.-1.A.625.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.U.260.-1.A.625.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.298.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.G.645.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.298.-1.G.645.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.298.-1.G.645.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A.773.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.1040.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=tSS(DSSR),tWS(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A.773.-1.C.1040.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A.773.-1.C.1040.(ntSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-C Bs/Ss pairing parallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7dco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.C.61.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.U.80.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU=cHS(ClaRNA,DSSR,FR3D,RNAView),cHW(MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.C.61.-F.U.80.(cHS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH_cis(0.76,F80-F61),HS_cis(0.56,F61-F80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H/S cis n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-U Hw/Ws pairing parallel cis one_hbond 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7dvq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.C.28.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.U.46.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.C.28.-F.U.46.(cHS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH_cis(0.73,F46-F28),HS_cis(0.62,F28-F46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7ez2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.G.22.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.A.207.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=tSS(MC-Annotate,RNAView),tSW(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.G.22.-N.A.207.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.G.22.-N.A.207.(ntSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A Sw/Ss pairing parallel trans one_hbond 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7lyf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.U.118.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GU=tWS(ClaRNA,DSSR,FR3D,RNAView),tWW(MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.18.-A.U.118.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS_tran(0.73,A18-A118),SW_tran(0.51,A118-A18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-U Ws/Ws pairing parallel trans one_hbond 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7m4y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.194.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1360.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cWS(DSSR,MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.194.-A.A.1360.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.194.-A.A.1360.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.63,A194-A1360),SS_cis(0.53,A1360-A194)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A Sw/Ww O2'/Ss pairing antiparallel cis one_hbond 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.202.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.257.</t>
+  </si>
+  <si>
     <t xml:space="preserve">AG=cSS(RNAView),cSW(DSSR)</t>
   </si>
   <si>
-    <t xml:space="preserve">BA.A.186.-BA.G.241.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.186.-BA.G.241.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/S cis !1H(b_b).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.190.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2190.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.190.-BA.C.2190.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/S tran syn !(b_s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-C Ww/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.192.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.242.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.192.-BA.A.242.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.192.-BA.A.242.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.583.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1354.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(FR3D,MC-Annotate,RNAView),tWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.583.-BA.G.1354.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.583.-BA.G.1354.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G Ss/Ss Ww/O2' pairing parallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.615.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.1281.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.615.-BA.C.1281.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.615.-BA.C.1281.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.726.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2522.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.726.-BA.G.2522.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.726.-BA.G.2522.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.770.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2475.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA=cWS(DSSR,FR3D,RNAView),tWS(MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.770.-BA.A.2475.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/S cis n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-A Wh/Ss Ww/O2' pairing antiparallel trans one_hbond 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.802.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2181.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(FR3D,RNAView),tWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.802.-BA.G.2181.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.802.-BA.G.2181.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G Bs/Ss Ww/O2' pairing parallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.886.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2094.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=cSS(RNAView),cWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.886.-BA.A.2094.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.886.-BA.A.2094.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/S cis syn !(b_s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-A O2'/Ss pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.898.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1489.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.898.-BA.A.1489.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.898.-BA.A.1489.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A Sw/Ss O2'/Ww pairing parallel trans one_hbond 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.909.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1904.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.909.-BA.G.1904.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.909.-BA.G.1904.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1040.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2380.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA=tSS(FR3D),tWS(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1040.-BA.A.2380.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1040.-BA.A.2380.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-A Ww/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1088.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2599.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1088.-BA.C.2599.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1088.-BA.C.2599.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1089.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1089.-BA.C.2599.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1161.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2569.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1161.-BA.G.2569.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1161.-BA.G.2569.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1423.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.1795.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=cWS(FR3D),tWS(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1423.-BA.C.1795.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1423.-BA.C.1795.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1474.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1531.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1474.-BA.A.1531.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1474.-BA.A.1531.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1482.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1516.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=cSS(FR3D,RNAView),cWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1482.-BA.A.1516.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1482.-BA.A.1516.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.U.1540.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1619.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.U.1540.-BA.A.1619.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U-A O2'/Ww pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1562.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1658.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1562.-BA.G.1658.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1562.-BA.G.1658.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G Ww/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.1857.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2984.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.1857.-BA.A.2984.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.1857.-BA.A.2984.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1878.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2994.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(RNAView),tWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1878.-BA.A.2994.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1878.-BA.A.2994.(ntSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1921.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2013.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1921.-BA.A.2013.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1921.-BA.A.2013.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2065.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2664.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2065.-BA.C.2664.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2065.-BA.C.2664.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2079.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2696.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2079.-BA.G.2696.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2079.-BA.G.2696.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2540.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2702.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2540.-BA.A.2702.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2540.-BA.A.2702.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2611.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2657.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG=tSS(FR3D,RNAView),tWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2611.-BA.G.2657.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2611.-BA.G.2657.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/S tran !1H(b_b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6vwl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.1054.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.G.58.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG=tSS(RNAView),tWS(DSSR,MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.1054.-4.G.58.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.1054.-4.G.58.(ntWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-G Ws/Sw pairing parallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6zu5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L50.A.1760.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.1295.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA=tSS(FR3D),tSW(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L50.A.1760.-S60.A.1295.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L50.A.1760.-S60.A.1295.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-A O2'/Ww pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.990.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.11.-S60.A.990.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.11.-S60.A.990.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.14.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.495.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.14.-S60.A.495.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.75.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.129.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=cSS(FR3D),cWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.75.-S60.A.129.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.75.-S60.A.129.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A Ss/Bs O2'/Ss pairing antiparallel cis one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.351.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.405.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=cWS(DSSR,FR3D,RNAView),tWS(MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.351.-S60.A.405.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/W cis n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-A Ss/Wh O2'/Ww pairing antiparallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.425.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.432.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.425.-S60.A.432.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.425.-S60.A.432.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.431.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.466.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.431.-S60.C.466.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.431.-S60.C.466.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.651.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.686.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.651.-S60.C.686.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.779.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.834.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.779.-S60.A.834.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.779.-S60.A.834.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.836.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.836.-S60.A.990.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.836.-S60.A.990.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.U.866.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.1241.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.U.866.-S60.A.1241.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U-A O2'/Ww O2'/Bh pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.1360.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.1381.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(FR3D),tWS(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.1360.-S60.A.1381.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7aih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.G.220.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.G.881.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GG=tWH(DSSR),tWS(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.G.220.-1.G.881.(tWH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-G Ww/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.U.260.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.625.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU=tSS(FR3D),tWS(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.U.260.-1.A.625.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.U.260.-1.A.625.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.298.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.G.645.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.298.-1.G.645.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.298.-1.G.645.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.773.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.1040.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=tSS(DSSR),tWS(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.773.-1.C.1040.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.773.-1.C.1040.(ntSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-C Bs/Ss pairing parallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7dco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.C.61.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.U.80.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU=cHS(ClaRNA,DSSR,FR3D,RNAView),cHW(MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.C.61.-F.U.80.(cHS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH_cis(0.76,F80-F61),HS_cis(0.56,F61-F80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H/S cis n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-U Hw/Ws pairing parallel cis one_hbond 99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7dvq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.C.28.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.U.46.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.C.28.-F.U.46.(cHS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH_cis(0.73,F46-F28),HS_cis(0.62,F28-F46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7ez2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.G.22.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.A.207.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(MC-Annotate,RNAView),tSW(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.G.22.-N.A.207.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.G.22.-N.A.207.(ntSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A Sw/Ss pairing parallel trans one_hbond 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7lyf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.18.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.U.118.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GU=tWS(ClaRNA,DSSR,FR3D,RNAView),tWW(MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.18.-A.U.118.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS_tran(0.73,A18-A118),SW_tran(0.51,A118-A18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-U Ws/Ws pairing parallel trans one_hbond 87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7m4y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.194.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1360.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cWS(DSSR,MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.194.-A.A.1360.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.194.-A.A.1360.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.63,A194-A1360),SS_cis(0.53,A1360-A194)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A Sw/Ww O2'/Ss pairing antiparallel cis one_hbond 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.202.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.257.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A.A.202.-A.G.257.(cSW)</t>
   </si>
   <si>
@@ -1666,9 +1816,6 @@
     <t xml:space="preserve">A.A.2365.</t>
   </si>
   <si>
-    <t xml:space="preserve">AA=cWS(ClaRNA,DSSR,FR3D,RNAView),tWS(MC-Annotate)</t>
-  </si>
-  <si>
     <t xml:space="preserve">A.A.641.-A.A.2365.(cWS)</t>
   </si>
   <si>
@@ -1963,6 +2110,21 @@
     <t xml:space="preserve">A.A.2527.-A.C.2654.(cSS)</t>
   </si>
   <si>
+    <t xml:space="preserve">a.G.98.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.147.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.98.-a.A.147.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.98.-a.A.147.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.76,a98-a147)</t>
+  </si>
+  <si>
     <t xml:space="preserve">a.G.144.</t>
   </si>
   <si>
@@ -1975,6 +2137,9 @@
     <t xml:space="preserve">a.G.144.-a.A.1443.(cSS)</t>
   </si>
   <si>
+    <t xml:space="preserve">SS_cis(0.79,a144-a1443)</t>
+  </si>
+  <si>
     <t xml:space="preserve">a.C.171.</t>
   </si>
   <si>
@@ -1996,7 +2161,7 @@
     <t xml:space="preserve">a.A.259.</t>
   </si>
   <si>
-    <t xml:space="preserve">AG=tSS(FR3D,MC-Annotate),tWS(DSSR)</t>
+    <t xml:space="preserve">AG=tSS(ClaRNA,FR3D,MC-Annotate),tWS(DSSR)</t>
   </si>
   <si>
     <t xml:space="preserve">a.G.228.-a.A.259.(tSW[LN])</t>
@@ -2005,6 +2170,9 @@
     <t xml:space="preserve">a.G.228.-a.A.259.(tSS)</t>
   </si>
   <si>
+    <t xml:space="preserve">SS_tran(0.81,a228-a259)</t>
+  </si>
+  <si>
     <t xml:space="preserve">a.C.500.</t>
   </si>
   <si>
@@ -2056,6 +2224,9 @@
     <t xml:space="preserve">a.A.1266.-a.G.1309.(tSS)</t>
   </si>
   <si>
+    <t xml:space="preserve">SS_tran(0.91,a1266-a1309)</t>
+  </si>
+  <si>
     <t xml:space="preserve">a.U.1312.</t>
   </si>
   <si>
@@ -2245,9 +2416,6 @@
     <t xml:space="preserve">B5.G.93.</t>
   </si>
   <si>
-    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cSW(DSSR)</t>
-  </si>
-  <si>
     <t xml:space="preserve">B5.A.38.-B5.G.93.(cSW)</t>
   </si>
   <si>
@@ -2321,9 +2489,6 @@
   </si>
   <si>
     <t xml:space="preserve">B5.G.4110.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cWS(DSSR)</t>
   </si>
   <si>
     <t xml:space="preserve">B5.A.1335.-B5.G.4110.(cWS)</t>
@@ -2829,10 +2994,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3006,7 +3171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,7 +3333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -3240,7 +3405,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -3370,7 +3535,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -3523,7 +3688,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>172</v>
       </c>
@@ -3552,7 +3717,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>172</v>
       </c>
@@ -3659,7 +3824,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>190</v>
       </c>
@@ -3789,7 +3954,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>190</v>
       </c>
@@ -3913,7 +4078,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>190</v>
       </c>
@@ -3958,11 +4123,11 @@
       <c r="F43" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="H43" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>271</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,19 +4135,28 @@
         <v>190</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>276</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,22 +4164,19 @@
         <v>190</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,22 +4184,25 @@
         <v>190</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>286</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,25 +4210,22 @@
         <v>190</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>290</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>106</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,51 +4233,54 @@
         <v>190</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,25 +4288,28 @@
         <v>190</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>114</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,25 +4317,25 @@
         <v>190</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>308</v>
+        <v>49</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>310</v>
+        <v>132</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,51 +4343,57 @@
         <v>190</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,25 +4401,28 @@
         <v>190</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,25 +4430,25 @@
         <v>190</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>297</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,48 +4456,54 @@
         <v>190</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,19 +4511,28 @@
         <v>190</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,22 +4540,25 @@
         <v>190</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>57</v>
+        <v>359</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>132</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4362,25 +4566,22 @@
         <v>190</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>352</v>
+        <v>49</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,25 +4589,19 @@
         <v>190</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>357</v>
+        <v>104</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,25 +4609,25 @@
         <v>190</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>361</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>363</v>
+        <v>372</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>271</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,22 +4635,25 @@
         <v>190</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>12</v>
+        <v>376</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,25 +4661,28 @@
         <v>190</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>371</v>
+        <v>382</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>372</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,22 +4690,28 @@
         <v>190</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>376</v>
+        <v>387</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>14</v>
+        <v>277</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4512,22 +4719,22 @@
         <v>190</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,25 +4742,28 @@
         <v>190</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>60</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,25 +4771,22 @@
         <v>190</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4587,25 +4794,25 @@
         <v>190</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>393</v>
+        <v>407</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4613,25 +4820,28 @@
         <v>190</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>397</v>
+        <v>412</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,2490 +4849,2526 @@
         <v>190</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>403</v>
+        <v>196</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>404</v>
+        <v>190</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>409</v>
+        <v>421</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>410</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>411</v>
+        <v>190</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>414</v>
+        <v>200</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>416</v>
+        <v>426</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>417</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>411</v>
+        <v>190</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>193</v>
+        <v>430</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>437</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>106</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>433</v>
+        <v>193</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>435</v>
+        <v>113</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>436</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>440</v>
+        <v>455</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="B80" s="1" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>466</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>447</v>
+        <v>467</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>132</v>
+        <v>469</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>287</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>451</v>
+        <v>474</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>339</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>414</v>
+        <v>220</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>417</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>458</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>461</v>
+        <v>92</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>462</v>
+        <v>486</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>60</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>466</v>
+        <v>359</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>467</v>
+        <v>491</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>468</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>477</v>
+        <v>499</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>482</v>
+        <v>506</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>483</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>490</v>
+        <v>14</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>491</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>490</v>
+        <v>294</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>507</v>
+        <v>430</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>510</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>279</v>
+        <v>536</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>522</v>
+        <v>537</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>164</v>
+        <v>539</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>536</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>526</v>
+        <v>544</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>286</v>
+        <v>539</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>530</v>
+        <v>550</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>200</v>
+        <v>556</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>49</v>
+        <v>563</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>540</v>
+        <v>565</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>287</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>97</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>549</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>556</v>
+        <v>243</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>563</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>566</v>
+        <v>49</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>83</v>
+        <v>563</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>578</v>
+        <v>598</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>556</v>
+        <v>305</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>49</v>
+        <v>602</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>132</v>
+        <v>605</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>588</v>
+        <v>96</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>595</v>
+        <v>277</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>599</v>
+        <v>622</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>623</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>132</v>
+        <v>14</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>602</v>
+        <v>220</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>605</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>606</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>615</v>
+        <v>635</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>636</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>132</v>
+        <v>637</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>49</v>
+        <v>641</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>14</v>
+        <v>644</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>106</v>
+        <v>645</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>622</v>
+        <v>104</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>160</v>
+        <v>651</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>164</v>
+        <v>654</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>631</v>
+        <v>40</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>632</v>
+        <v>659</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>660</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>633</v>
+        <v>44</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>589</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>400</v>
+        <v>49</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>403</v>
+        <v>14</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>427</v>
+        <v>160</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>650</v>
+        <v>676</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>430</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>654</v>
+        <v>680</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>681</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>658</v>
+        <v>40</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>660</v>
+        <v>686</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>589</v>
+        <v>638</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>653</v>
+        <v>430</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>106</v>
+        <v>691</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>653</v>
+        <v>220</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>668</v>
+        <v>695</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>671</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>672</v>
+        <v>698</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>673</v>
+        <v>699</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>700</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>29</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>658</v>
+        <v>459</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>677</v>
+        <v>704</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>297</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>253</v>
+        <v>708</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>257</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>682</v>
+        <v>560</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>193</v>
+        <v>713</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>685</v>
+        <v>714</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>113</v>
+        <v>715</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>716</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>197</v>
+        <v>638</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>682</v>
+        <v>560</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>691</v>
+        <v>719</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>720</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>692</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>682</v>
+        <v>560</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>708</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>113</v>
+        <v>724</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>682</v>
+        <v>560</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>193</v>
+        <v>727</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>113</v>
+        <v>729</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>702</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>682</v>
+        <v>560</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>703</v>
+        <v>730</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>28</v>
+        <v>733</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>734</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>708</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>682</v>
+        <v>560</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>104</v>
+        <v>253</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>132</v>
+        <v>738</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>717</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>684</v>
+        <v>745</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>414</v>
+        <v>746</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>14</v>
+        <v>748</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>417</v>
+        <v>749</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>721</v>
+        <v>750</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>722</v>
+        <v>751</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>723</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>724</v>
+        <v>752</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>754</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>725</v>
+        <v>113</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>726</v>
+        <v>755</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>727</v>
+        <v>756</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>728</v>
+        <v>193</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>28</v>
+        <v>113</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>731</v>
+        <v>760</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>732</v>
+        <v>761</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>336</v>
+        <v>762</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>735</v>
+        <v>765</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I139" s="2" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>741</v>
+        <v>92</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>523</v>
+        <v>774</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>745</v>
+        <v>775</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>104</v>
+        <v>444</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>776</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>747</v>
+        <v>777</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>287</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>414</v>
+        <v>780</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>752</v>
+        <v>782</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>753</v>
+        <v>783</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>754</v>
+        <v>784</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>49</v>
+        <v>785</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>755</v>
+        <v>786</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>756</v>
+        <v>787</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>287</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>757</v>
+        <v>788</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>758</v>
+        <v>789</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>759</v>
+        <v>359</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>762</v>
+        <v>791</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>763</v>
+        <v>132</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>764</v>
+        <v>792</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>768</v>
+        <v>104</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>771</v>
+        <v>796</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>772</v>
+        <v>797</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>773</v>
+        <v>798</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>774</v>
+        <v>799</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>800</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>223</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>777</v>
+        <v>104</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>780</v>
+        <v>805</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>781</v>
+        <v>444</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>811</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>787</v>
+        <v>812</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="I149" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>788</v>
+        <v>813</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>49</v>
+        <v>815</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>791</v>
+        <v>817</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>818</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>106</v>
+        <v>820</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>795</v>
+        <v>273</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>796</v>
+        <v>823</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>797</v>
+        <v>824</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>798</v>
+        <v>277</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>799</v>
+        <v>826</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>800</v>
+        <v>827</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>602</v>
+        <v>220</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>801</v>
+        <v>828</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>829</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>802</v>
+        <v>113</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>803</v>
+        <v>223</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>806</v>
+        <v>341</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>832</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>40</v>
+        <v>836</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>297</v>
+        <v>839</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>813</v>
+        <v>840</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>814</v>
+        <v>841</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>816</v>
+        <v>104</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>842</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>818</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>821</v>
+        <v>49</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>164</v>
+        <v>847</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>40</v>
+        <v>651</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>44</v>
+        <v>857</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>45</v>
+        <v>858</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>840</v>
+        <v>862</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>841</v>
+        <v>132</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>844</v>
+        <v>40</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>846</v>
+        <v>866</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>847</v>
+        <v>44</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>848</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>49</v>
+        <v>876</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>49</v>
+        <v>881</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>862</v>
+        <v>882</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>863</v>
+        <v>883</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>884</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>864</v>
+        <v>886</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>865</v>
+        <v>887</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>888</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>866</v>
+        <v>889</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>890</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>12</v>
+        <v>160</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>893</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>869</v>
+        <v>894</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>895</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>132</v>
+        <v>896</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>870</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>871</v>
+        <v>897</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>876</v>
+        <v>901</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>270</v>
+        <v>902</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>877</v>
+        <v>903</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>878</v>
+        <v>904</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>879</v>
+        <v>905</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>881</v>
+        <v>907</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>882</v>
+        <v>908</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>883</v>
+        <v>909</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>884</v>
+        <v>910</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>885</v>
+        <v>911</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>887</v>
+        <v>913</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>14</v>
@@ -7133,56 +7379,209 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>889</v>
+        <v>915</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>890</v>
+        <v>916</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>891</v>
+        <v>917</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>893</v>
+        <v>918</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>894</v>
+        <v>919</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>895</v>
+        <v>920</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="H170" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="H176" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I170" s="2" t="s">
+      <c r="I176" s="2" t="s">
         <v>223</v>
       </c>
     </row>

--- a/TableS_bp_disagreements.xlsx
+++ b/TableS_bp_disagreements.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="943">
   <si>
     <t xml:space="preserve">PDB_ID</t>
   </si>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">B.G.31.-B.A.117.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.88,B31-B117),SS_tran(0.81,B117-B31)</t>
+    <t xml:space="preserve">SS_tran(0.924,B.G.31.-B.A.117.),SS_tran(0.911,B.A.117.-B.G.31.)</t>
   </si>
   <si>
     <t xml:space="preserve">S/S tran n/a</t>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">B.G.4.-B.A.96.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.83,B4-B96),SS_tran(0.81,B96-B4)</t>
+    <t xml:space="preserve">SS_tran(0.897,B.A.96.-B.G.4.),SS_tran(0.886,B.G.4.-B.A.96.)</t>
   </si>
   <si>
     <t xml:space="preserve">B.G.76.</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">B.G.76.-B.A.288.(ntSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.82,B76-B288),SS_tran(0.81,B288-B76)</t>
+    <t xml:space="preserve">SS_tran(0.905,B.A.288.-B.G.76.),SS_tran(0.821,B.G.76.-B.A.288.)</t>
   </si>
   <si>
     <t xml:space="preserve">G-A Ss/Ss pairing parallel trans 57</t>
@@ -280,7 +280,7 @@
     <t xml:space="preserve">B.G.87.-B.A.191.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.82,B191-B87),SS_tran(0.71,B87-B191)</t>
+    <t xml:space="preserve">SS_tran(0.824,B.G.87.-B.A.191.),SS_tran(0.795,B.A.191.-B.G.87.)</t>
   </si>
   <si>
     <t xml:space="preserve">S/W tran X</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">A.A.43.-A.G.64.(ncSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_cis(0.65,A64-A43),SS_cis(0.58,A43-A64)</t>
+    <t xml:space="preserve">SS_cis(0.687,A.G.64.-A.A.43.),SS_cis(0.657,A.A.43.-A.G.64.)</t>
   </si>
   <si>
     <t xml:space="preserve">S/s cis n/a</t>
@@ -358,7 +358,7 @@
     <t xml:space="preserve">A.A.124.-A.G.156.(ncSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_cis(0.65,A156-A124),SS_cis(0.64,A124-A156)</t>
+    <t xml:space="preserve">SS_cis(0.734,A.A.124.-A.G.156.),SS_cis(0.645,A.G.156.-A.A.124.)</t>
   </si>
   <si>
     <t xml:space="preserve">S/s cis !(s_s)</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">R.A.29.-R.G.62.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.87,R62-R29),SS_tran(0.84,R29-R62)</t>
+    <t xml:space="preserve">SS_tran(0.936,R.G.62.-R.A.29.),SS_tran(0.906,R.A.29.-R.G.62.)</t>
   </si>
   <si>
     <t xml:space="preserve">A-G Ss/Ss Ww/O2' pairing parallel trans 57</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">A.A.8.-A.G.23.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.71,A8-A23),SS_tran(0.66,A23-A8)</t>
+    <t xml:space="preserve">SS_tran(0.79,A.A.8.-A.G.23.),SS_tran(0.773,A.G.23.-A.A.8.)</t>
   </si>
   <si>
     <t xml:space="preserve">A-G Ss/Ss pairing parallel trans one_hbond</t>
@@ -460,22 +460,7 @@
     <t xml:space="preserve">1.G.136.-1.A.214.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.91,1214-1136),SS_tran(0.81,1136-1214)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.149.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.200.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA=cWH(ClaRNA),cWW(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW_cis(0.66,1200-1149)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/W cis !1H(b_b).</t>
+    <t xml:space="preserve">SS_tran(0.929,1.A.214.-1.G.136.),SS_tran(0.891,1.G.136.-1.A.214.)</t>
   </si>
   <si>
     <t xml:space="preserve">1.G.150.</t>
@@ -511,7 +496,7 @@
     <t xml:space="preserve">CA.A.27.-CA.G.239.(cSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_cis(0.64,Z239-Z27)</t>
+    <t xml:space="preserve">SS_cis(0.727,CA.G.239.-CA.A.27.),SS_cis(0.611,CA.A.27.-CA.G.239.)</t>
   </si>
   <si>
     <t xml:space="preserve">S/S cis !(b_s)</t>
@@ -562,7 +547,7 @@
     <t xml:space="preserve">A.A.106.-A.G.473.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.81,A106-A473),SS_tran(0.73,A473-A106)</t>
+    <t xml:space="preserve">SS_tran(0.921,A.A.106.-A.G.473.),SS_tran(0.861,A.G.473.-A.A.106.)</t>
   </si>
   <si>
     <t xml:space="preserve">A-G Ss/Ss pairing parallel trans 57</t>
@@ -583,7 +568,7 @@
     <t xml:space="preserve">A.G.272.-A.A.299.(ntSW)</t>
   </si>
   <si>
-    <t xml:space="preserve">WS_tran(0.77,A299-A272),SW_tran(0.56,A272-A299)</t>
+    <t xml:space="preserve">SW_tran(0.724,A.G.272.-A.A.299.),WS_tran(0.672,A.A.299.-A.G.272.)</t>
   </si>
   <si>
     <t xml:space="preserve">S/H tran XI</t>
@@ -601,1653 +586,1662 @@
     <t xml:space="preserve">Aa.A.1024.</t>
   </si>
   <si>
+    <t xml:space="preserve">AA=cSS(ClaRNA,FR3D),cWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.11.-Aa.A.1024.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.11.-Aa.A.1024.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.604,Aa.A.1024.-Aa.A.11.),SS_cis(0.545,Aa.A.11.-Aa.A.1024.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/s cis !(b_s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-A Ss/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.G.36.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.567.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=tSS(ClaRNA,FR3D,RNAView),tWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.G.36.-Aa.A.567.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.G.36.-Aa.A.567.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.878,Aa.G.36.-Aa.A.567.),SS_tran(0.847,Aa.A.567.-Aa.G.36.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.82.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.152.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.82.-Aa.A.152.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.358.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.426.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cWS(ClaRNA,FR3D),tWS(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.358.-Aa.A.426.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.358.-Aa.A.426.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_cis(0.563,Aa.C.358.-Aa.A.426.),WS_cis(0.523,Aa.A.426.-Aa.C.358.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/W tran n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.447.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.454.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.447.-Aa.A.454.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.447.-Aa.A.454.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.453.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.488.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cSS(FR3D),cWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.453.-Aa.C.488.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.453.-Aa.C.488.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-C Ss/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.518.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.833.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.518.-Aa.C.833.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.518.-Aa.C.833.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.642.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.743.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.642.-Aa.C.743.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-C Ww/O2' Bh/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.712.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.G.1474.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.712.-Aa.G.1474.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.712.-Aa.G.1474.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.525,Aa.G.1474.-Aa.A.712.),SS_cis(0.519,Aa.A.712.-Aa.G.1474.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.G.938.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.G.966.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GG=cSH(ClaRNA,DSSR),cSW(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.G.938.-Aa.G.966.(cSH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.G.938.-Aa.G.966.(ncSH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH_cis(0.635,Aa.G.938.-Aa.G.966.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/W cis !1H(b_b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.1033.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1122.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.1033.-Aa.A.1122.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.1033.-Aa.A.1122.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1203.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.C.1306.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1203.-Aa.C.1306.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.U.1267.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1312.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU=cSS(ClaRNA,FR3D),cWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.U.1267.-Aa.A.1312.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.U.1267.-Aa.A.1312.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.622,Aa.A.1312.-Aa.U.1267.),SS_cis(0.567,Aa.U.1267.-Aa.A.1312.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s/S cis !(s_s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U-A O2'/Ss pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1271.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.U.1313.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU=tWS(ClaRNA,RNAView),tWW(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1271.-Aa.U.1313.(tWW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1271.-Aa.U.1313.(ntWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS_tran(0.648,Aa.A.1271.-Aa.U.1313.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/S tran !1H(b_b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1370.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2061.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=tSS(ClaRNA),tWS(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1370.-BA.G.2061.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa.A.1370.-BA.G.2061.(ntSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.808,BA.G.2061.-Aa.A.1370.),SS_tran(0.806,Aa.A.1370.-BA.G.2061.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.178.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1500.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.178.-BA.A.1500.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.178.-BA.A.1500.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.546,BA.A.1500.-BA.G.178.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/S cis n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A O2'/Ss pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.U.183.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.928.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU=tHS(FR3D),tHW(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.U.183.-BA.C.928.(tWH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.U.183.-BA.C.928.(tSH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.186.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.241.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cSW(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.186.-BA.G.241.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.186.-BA.G.241.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.626,BA.G.241.-BA.A.186.),SS_cis(0.545,BA.A.186.-BA.G.241.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/S cis !1H(b_b).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.190.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2190.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.190.-BA.C.2190.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/S tran syn !(b_s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-C Ww/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.192.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.242.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.192.-BA.A.242.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.192.-BA.A.242.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.583.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1354.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.583.-BA.G.1354.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.583.-BA.G.1354.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.932,BA.A.583.-BA.G.1354.),SS_tran(0.873,BA.G.1354.-BA.A.583.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-G Ss/Ss Ww/O2' pairing parallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.615.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.1281.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.615.-BA.C.1281.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.615.-BA.C.1281.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.726.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2522.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.726.-BA.G.2522.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.726.-BA.G.2522.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.756,BA.G.2522.-BA.A.726.),SS_cis(0.668,BA.A.726.-BA.G.2522.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.770.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2475.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA=cWS(ClaRNA,DSSR,FR3D,RNAView),tWS(MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.770.-BA.A.2475.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS_cis(0.816,BA.A.770.-BA.A.2475.),SW_cis(0.787,BA.A.2475.-BA.A.770.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/S cis n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-A Wh/Ss Ww/O2' pairing antiparallel trans one_hbond 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.802.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2181.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.802.-BA.G.2181.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.802.-BA.G.2181.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.897,BA.A.802.-BA.G.2181.),SS_tran(0.848,BA.G.2181.-BA.A.802.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-G Bs/Ss Ww/O2' pairing parallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.825.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1779.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.825.-BA.G.1779.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.825.-BA.G.1779.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.714,BA.G.1779.-BA.A.825.),SS_cis(0.606,BA.A.825.-BA.G.1779.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.886.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2094.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cSS(RNAView),cWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.886.-BA.A.2094.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.886.-BA.A.2094.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/S cis syn !(b_s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-A O2'/Ss pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.898.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1489.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.898.-BA.A.1489.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.898.-BA.A.1489.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.889,BA.A.1489.-BA.G.898.),SS_tran(0.826,BA.G.898.-BA.A.1489.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A Sw/Ss O2'/Ww pairing parallel trans one_hbond 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.909.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1904.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.909.-BA.G.1904.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.909.-BA.G.1904.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.91,BA.A.909.-BA.G.1904.),SS_tran(0.851,BA.G.1904.-BA.A.909.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1040.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2380.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA=tSS(FR3D),tWS(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1040.-BA.A.2380.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1040.-BA.A.2380.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-A Ww/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1088.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2599.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1088.-BA.C.2599.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1088.-BA.C.2599.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1089.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1089.-BA.C.2599.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1161.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2569.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1161.-BA.G.2569.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1161.-BA.G.2569.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.792,BA.G.2569.-BA.A.1161.),SS_tran(0.776,BA.A.1161.-BA.G.2569.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1423.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.1795.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cWS(FR3D),tWS(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1423.-BA.C.1795.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1423.-BA.C.1795.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1474.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1531.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1474.-BA.A.1531.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1474.-BA.A.1531.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.931,BA.A.1531.-BA.G.1474.),SS_tran(0.867,BA.G.1474.-BA.A.1531.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1482.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1516.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1482.-BA.A.1516.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1482.-BA.A.1516.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.833,BA.G.1482.-BA.A.1516.),SS_cis(0.759,BA.A.1516.-BA.G.1482.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.U.1540.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1619.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.U.1540.-BA.A.1619.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U-A O2'/Ww pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1562.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1658.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1562.-BA.G.1658.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.1562.-BA.G.1658.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.89,BA.A.1562.-BA.G.1658.),SS_tran(0.881,BA.G.1658.-BA.A.1562.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-G Ww/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.1857.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2984.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.1857.-BA.A.2984.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.1857.-BA.A.2984.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1878.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2994.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=tSS(ClaRNA,RNAView),tWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1878.-BA.A.2994.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1878.-BA.A.2994.(ntSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.846,BA.A.2994.-BA.G.1878.),SS_tran(0.769,BA.G.1878.-BA.A.2994.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1921.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2013.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1921.-BA.A.2013.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.1921.-BA.A.2013.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.746,BA.A.2013.-BA.G.1921.),SS_tran(0.657,BA.G.1921.-BA.A.2013.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2065.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2664.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2065.-BA.C.2664.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2065.-BA.C.2664.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2079.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2696.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2079.-BA.G.2696.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2079.-BA.G.2696.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.762,BA.A.2079.-BA.G.2696.),SS_cis(0.741,BA.G.2696.-BA.A.2079.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2540.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2702.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2540.-BA.A.2702.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2540.-BA.A.2702.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.871,BA.A.2702.-BA.G.2540.),SS_tran(0.868,BA.G.2540.-BA.A.2702.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2611.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.G.2657.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG=tSS(FR3D,RNAView),tWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2611.-BA.G.2657.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2611.-BA.G.2657.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/S tran !1H(b_b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2635.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.C.2763.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cSS(ClaRNA),cWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2635.-BA.C.2763.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.A.2635.-BA.C.2763.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.607,BA.C.2763.-BA.A.2635.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6vwl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.1054.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.G.58.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG=tSS(RNAView),tWS(DSSR,MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.1054.-4.G.58.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.1054.-4.G.58.(ntWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-G Ws/Sw pairing parallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6zu5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L50.A.1760.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1295.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA=tSS(FR3D),tSW(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L50.A.1760.-S60.A.1295.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L50.A.1760.-S60.A.1295.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-A O2'/Ww pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.990.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.11.-S60.A.990.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.11.-S60.A.990.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.632,S60.A.990.-S60.A.11.),SS_cis(0.625,S60.A.11.-S60.A.990.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.495.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.14.-S60.A.495.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.75.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.129.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=cSS(ClaRNA,FR3D),cWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.75.-S60.A.129.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.75.-S60.A.129.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.641,S60.G.75.-S60.A.129.),SS_cis(0.608,S60.A.129.-S60.G.75.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A Ss/Bs O2'/Ss pairing antiparallel cis one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.351.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.405.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cWS(ClaRNA,DSSR,FR3D,RNAView),tWS(MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.351.-S60.A.405.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_cis(0.615,S60.C.351.-S60.A.405.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/W cis n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-A Ss/Wh O2'/Ww pairing antiparallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.425.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.432.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.425.-S60.A.432.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.425.-S60.A.432.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.924,S60.A.432.-S60.G.425.),SS_tran(0.898,S60.G.425.-S60.A.432.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.431.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.466.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.431.-S60.C.466.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.431.-S60.C.466.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.651.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.686.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.651.-S60.C.686.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.688.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.1388.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.688.-S60.G.1388.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.688.-S60.G.1388.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.546,S60.G.1388.-S60.A.688.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-G Ww/Ss pairing antiparallel cis 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.779.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.834.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.779.-S60.A.834.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.779.-S60.A.834.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.836.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.836.-S60.A.990.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.836.-S60.A.990.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.U.866.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1241.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.U.866.-S60.A.1241.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U-A O2'/Ww O2'/Bh pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1198.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.C.1238.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=cHW(ClaRNA),tWS(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1198.-S60.C.1238.(tW.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1198.-S60.C.1238.(ntWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WH_cis(0.572,S60.C.1238.-S60.A.1198.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.1360.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.A.1381.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=tSS(FR3D),tWS(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S60.G.1360.-S60.A.1381.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7aih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.G.220.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.G.881.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GG=tWH(DSSR),tWS(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.G.220.-1.G.881.(tWH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-G Ww/O2' pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.U.260.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A.625.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU=tSS(FR3D),tWS(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.U.260.-1.A.625.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.U.260.-1.A.625.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.298.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.G.645.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.298.-1.G.645.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.298.-1.G.645.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A.773.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.C.1040.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=tSS(DSSR),tWS(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A.773.-1.C.1040.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A.773.-1.C.1040.(ntSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-C Bs/Ss pairing parallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7dco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.C.61.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.U.80.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU=cHS(ClaRNA,DSSR,FR3D,RNAView),cHW(MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.C.61.-F.U.80.(cHS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH_cis(0.785,F.U.80.-F.C.61.),HS_cis(0.741,F.C.61.-F.U.80.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H/S cis n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-U Hw/Ws pairing parallel cis one_hbond 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7dvq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.C.28.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.U.46.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.C.28.-F.U.46.(cHS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH_cis(0.794,F.U.46.-F.C.28.),HS_cis(0.752,F.C.28.-F.U.46.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7ez2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.G.22.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.A.207.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=tSS(MC-Annotate,RNAView),tSW(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.G.22.-N.A.207.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.G.22.-N.A.207.(ntSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A Sw/Ss pairing parallel trans one_hbond 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7lyf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.U.118.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GU=tWS(ClaRNA,DSSR,FR3D,RNAView),tWW(MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.18.-A.U.118.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS_tran(0.708,A.G.18.-A.U.118.),SW_tran(0.667,A.U.118.-A.G.18.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-U Ws/Ws pairing parallel trans one_hbond 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7m4y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.194.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1360.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=cSS(RNAView),cWS(ClaRNA,DSSR,MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.194.-A.A.1360.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.194.-A.A.1360.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS_cis(0.63,A.A.1360.-A.G.194.),SS_cis(0.571,A.G.194.-A.A.1360.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A Sw/Ww O2'/Ss pairing antiparallel cis one_hbond 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.202.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.257.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=cSS(RNAView),cSW(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.202.-A.G.257.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.202.-A.G.257.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-G O2'/Bs pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.206.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.2074.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.206.-A.C.2074.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.U.207.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.385.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GU=cWS(RNAView),cWW(DSSR,MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.U.207.-A.G.385.(cWW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U-G Ws/Ws pairing antiparallel cis one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.442.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1240.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.442.-A.G.1240.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.442.-A.G.1240.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.835,A.G.1240.-A.A.442.),SS_tran(0.74,A.A.442.-A.G.1240.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.465.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.793.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.465.-A.C.793.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.465.-A.C.793.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.629.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.2411.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cWS(DSSR,MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.629.-A.G.2411.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.629.-A.G.2411.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.772,A.G.2411.-A.A.629.),SS_cis(0.677,A.A.629.-A.G.2411.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.641.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.2365.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.641.-A.A.2365.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS_cis(0.85,A.A.641.-A.A.2365.),SW_cis(0.795,A.A.2365.-A.A.641.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.691.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1348.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA=cSS(FR3D),cSW(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.691.-A.A.1348.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.691.-A.A.1348.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s/S cis !(b_s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-A O2'/Ss pairing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.697.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1631.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.697.-A.G.1631.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.697.-A.G.1631.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.699,A.G.1631.-A.A.697.),SS_cis(0.592,A.A.697.-A.G.1631.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-G Ww/Ss Ss/O2' pairing antiparallel cis one_hbond 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.756.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1977.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=cSS(FR3D,RNAView),cWS(DSSR,MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.756.-A.A.1977.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.756.-A.A.1977.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A Ss/Ww O2'/Ss pairing antiparallel cis 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.951.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.2270.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.951.-A.A.2270.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.951.-A.A.2270.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.896,A.G.951.-A.A.2270.),SS_tran(0.739,A.A.2270.-A.G.951.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.968.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.980.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.968.-A.A.980.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.968.-A.A.980.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1026.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.2461.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1026.-A.C.2461.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1026.-A.C.2461.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1333.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1388.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1333.-A.A.1388.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1333.-A.A.1388.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.89,A.G.1333.-A.A.1388.),SS_tran(0.888,A.A.1388.-A.G.1333.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/S tran !(b_s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-A Ss/Ss O2'/Ww pairing parallel trans one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1414.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1489.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA=cWW(MC-Annotate),tWW(DSSR,RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1414.-A.A.1489.(tWW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1414.-A.A.1489.(ntWW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/W tran I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-A Wh/Ww pairing parallel cis one_hbond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1472.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.1555.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1472.-A.C.1555.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1658.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.U.2685.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GU=tSW(MC-Annotate),tWW(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1658.-A.U.2685.(t.H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1658.-A.U.2685.(ncSH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/W tran syn !1H(b_b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-U Sw/Wh pairing parallel trans one_hbond 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1746.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.2856.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1746.-A.A.2856.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.1746.-A.A.2856.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.886,A.A.2856.-A.G.1746.),SS_tran(0.87,A.G.1746.-A.A.2856.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1781.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.2584.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1781.-A.G.2584.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1781.-A.G.2584.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.1789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1896.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.1789.-A.A.1896.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.1789.-A.A.1896.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1948.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.2556.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1948.-A.A.2556.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1948.-A.A.2556.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.884,A.A.2556.-A.A.1948.),SS_cis(0.798,A.A.1948.-A.A.2556.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1962.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.2588.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1962.-A.G.2588.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.1962.-A.G.2588.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.582,A.G.2588.-A.A.1962.),SS_cis(0.562,A.A.1962.-A.G.2588.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.2244.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.2271.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC=cSH(FR3D),cWH(RNAView)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.2244.-A.C.2271.(cSH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/H cis n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.2432.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.2594.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.2432.-A.A.2594.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.2432.-A.A.2594.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.925,A.A.2594.-A.G.2432.),SS_tran(0.895,A.G.2432.-A.A.2594.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.2503.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.G.2549.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.2503.-A.G.2549.(tWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.2503.-A.G.2549.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.2527.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.C.2654.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.2527.-A.C.2654.(cWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.A.2527.-A.C.2654.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.98.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.147.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.98.-a.A.147.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.98.-a.A.147.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.763,a.A.147.-a.G.98.),SS_cis(0.747,a.G.98.-a.A.147.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.144.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.1443.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.144.-a.A.1443.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.144.-a.A.1443.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.791,a.G.144.-a.A.1443.),SS_cis(0.673,a.A.1443.-a.G.144.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.C.171.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.1444.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC=tSS(FR3D),tWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.C.171.-a.A.1444.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.C.171.-a.A.1444.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.228.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.259.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG=tSS(ClaRNA,FR3D,MC-Annotate),tWS(DSSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.228.-a.A.259.(tSW[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.228.-a.A.259.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.807,a.A.259.-a.G.228.),SS_tran(0.803,a.G.228.-a.A.259.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.C.500.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.507.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.C.500.-a.A.507.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.C.500.-a.A.507.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.C.921.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.1499.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.C.921.-a.A.1499.(tSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.C.921.-a.A.1499.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.1230.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.U.1361.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GU=cSS(DSSR),cSW(MC-Annotate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.1230.-a.U.1361.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.1230.-a.U.1361.(ncSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.1266.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.G.1309.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.1266.-a.G.1309.(tWS[LN])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.1266.-a.G.1309.(tSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_tran(0.912,a.G.1309.-a.A.1266.),SS_tran(0.886,a.A.1266.-a.G.1309.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.U.1312.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.A.1357.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.U.1312.-a.A.1357.(cSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.U.1312.-a.A.1357.(cSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_cis(0.631,a.A.1357.-a.U.1312.),SS_cis(0.594,a.U.1312.-a.A.1357.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7o7y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.A.11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.A.1358.</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA=cSS(FR3D),cWS(DSSR)</t>
   </si>
   <si>
-    <t xml:space="preserve">Aa.A.11.-Aa.A.1024.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.11.-Aa.A.1024.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/s cis !(b_s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-A Ss/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.G.36.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.567.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(ClaRNA,FR3D,RNAView),tWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.G.36.-Aa.A.567.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.G.36.-Aa.A.567.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.82,D567-D36),SS_tran(0.78,D36-D567)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.82.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.152.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.82.-Aa.A.152.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.358.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.426.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=cWS(ClaRNA,FR3D),tWS(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.358.-Aa.A.426.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.358.-Aa.A.426.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW_cis(0.55,D358-D426),WS_cis(0.54,D426-D358)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/W tran n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.447.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.454.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.447.-Aa.A.454.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.447.-Aa.A.454.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.453.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.488.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=cSS(FR3D),cWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.453.-Aa.C.488.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.453.-Aa.C.488.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-C Ss/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.518.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.833.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.518.-Aa.C.833.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.518.-Aa.C.833.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.642.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.743.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.642.-Aa.C.743.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-C Ww/O2' Bh/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.712.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.G.1474.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.712.-Aa.G.1474.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.712.-Aa.G.1474.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.57,D712-D1474),SS_cis(0.51,D1474-D712)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.G.938.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.G.966.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GG=cSH(ClaRNA,DSSR),cSW(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.G.938.-Aa.G.966.(cSH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.G.938.-Aa.G.966.(ncSH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH_cis(0.54,D938-D966)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/W cis !1H(b_b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.1033.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1122.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.1033.-Aa.A.1122.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.1033.-Aa.A.1122.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1203.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.C.1306.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1203.-Aa.C.1306.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.U.1267.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1312.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU=cSS(FR3D),cWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.U.1267.-Aa.A.1312.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.U.1267.-Aa.A.1312.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s/S cis !(s_s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U-A O2'/Ss pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1271.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.U.1313.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU=tWS(ClaRNA,RNAView),tWW(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1271.-Aa.U.1313.(tWW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1271.-Aa.U.1313.(ntWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS_tran(0.68,D1271-D1313),SW_tran(0.63,D1313-D1271)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/S tran !1H(b_b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1370.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2061.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(ClaRNA),tWS(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1370.-BA.G.2061.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa.A.1370.-BA.G.2061.(ntSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.81,A2061-D1370)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.178.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1500.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.178.-BA.A.1500.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.178.-BA.A.1500.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.55,A178-A1500)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/S cis n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A O2'/Ss pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.U.183.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.928.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU=tHS(FR3D),tHW(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.U.183.-BA.C.928.(tWH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.U.183.-BA.C.928.(tSH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.186.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.241.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cSW(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.186.-BA.G.241.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.186.-BA.G.241.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.62,A186-A241)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/S cis !1H(b_b).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.190.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2190.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.190.-BA.C.2190.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/S tran syn !(b_s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-C Ww/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.192.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.242.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.192.-BA.A.242.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.192.-BA.A.242.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.217.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.U.458.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU=cSH(ClaRNA),cWS(DSSR,FR3D,MC-Annotate,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.217.-BA.U.458.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH_cis(0.8,A217-A458),WS_cis(0.73,A217-A458)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/S cis n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-U Wh/Ss Ww/O2' pairing antiparallel cis one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.583.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1354.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.583.-BA.G.1354.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.583.-BA.G.1354.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.93,A583-A1354)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G Ss/Ss Ww/O2' pairing parallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.615.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.1281.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.615.-BA.C.1281.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.615.-BA.C.1281.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.726.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2522.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.726.-BA.G.2522.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.726.-BA.G.2522.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.76,A726-A2522)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.770.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2475.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA=cWS(ClaRNA,DSSR,FR3D,RNAView),tWS(MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.770.-BA.A.2475.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS_cis(0.81,A770-A2475),SH_cis(0.79,A770-A2475)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-A Wh/Ss Ww/O2' pairing antiparallel trans one_hbond 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.802.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2181.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.802.-BA.G.2181.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.802.-BA.G.2181.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.9,A802-A2181)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G Bs/Ss Ww/O2' pairing parallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.825.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1779.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.825.-BA.G.1779.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.825.-BA.G.1779.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.71,A825-A1779)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.886.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2094.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=cSS(RNAView),cWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.886.-BA.A.2094.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.886.-BA.A.2094.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/S cis syn !(b_s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-A O2'/Ss pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.898.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1489.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.898.-BA.A.1489.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.898.-BA.A.1489.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.89,A898-A1489)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A Sw/Ss O2'/Ww pairing parallel trans one_hbond 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.909.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1904.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.909.-BA.G.1904.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.909.-BA.G.1904.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.91,A909-A1904)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1040.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2380.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA=tSS(FR3D),tWS(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1040.-BA.A.2380.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1040.-BA.A.2380.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-A Ww/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1088.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2599.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1088.-BA.C.2599.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1088.-BA.C.2599.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1089.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1089.-BA.C.2599.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1161.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2569.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1161.-BA.G.2569.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1161.-BA.G.2569.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.79,A1161-A2569)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1423.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.1795.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=cWS(FR3D),tWS(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1423.-BA.C.1795.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1423.-BA.C.1795.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1474.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1531.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1474.-BA.A.1531.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1474.-BA.A.1531.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.93,A1474-A1531)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1482.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1516.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1482.-BA.A.1516.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1482.-BA.A.1516.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.83,A1482-A1516)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.U.1540.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1619.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.U.1540.-BA.A.1619.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U-A O2'/Ww pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1562.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1658.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1562.-BA.G.1658.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.1562.-BA.G.1658.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.89,A1562-A1658)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G Ww/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.1857.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2984.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.1857.-BA.A.2984.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.1857.-BA.A.2984.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1878.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2994.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(ClaRNA,RNAView),tWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1878.-BA.A.2994.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1878.-BA.A.2994.(ntSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.85,A1878-A2994)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1921.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2013.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1921.-BA.A.2013.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.1921.-BA.A.2013.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.74,A1921-A2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2065.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2664.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2065.-BA.C.2664.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2065.-BA.C.2664.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2079.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2696.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2079.-BA.G.2696.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2079.-BA.G.2696.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.76,A2079-A2696)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2540.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.A.2702.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2540.-BA.A.2702.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2540.-BA.A.2702.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.87,A2540-A2702)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2611.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.G.2657.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG=tSS(FR3D,RNAView),tWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2611.-BA.G.2657.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA.C.2611.-BA.G.2657.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/S tran !1H(b_b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6vwl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.1054.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.G.58.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG=tSS(RNAView),tWS(DSSR,MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.1054.-4.G.58.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.1054.-4.G.58.(ntWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-G Ws/Sw pairing parallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6zu5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L50.A.1760.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.1295.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA=tSS(FR3D),tSW(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L50.A.1760.-S60.A.1295.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L50.A.1760.-S60.A.1295.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-A O2'/Ww pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.990.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.11.-S60.A.990.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.11.-S60.A.990.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.14.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.495.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=tSS(ClaRNA,FR3D),tWS(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.14.-S60.A.495.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.6,D14-D495)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.75.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.129.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=cSS(ClaRNA,FR3D),cWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.75.-S60.A.129.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.75.-S60.A.129.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.64,D75-D129)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A Ss/Bs O2'/Ss pairing antiparallel cis one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.351.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.405.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=cWS(ClaRNA,DSSR,FR3D,RNAView),tWS(MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.351.-S60.A.405.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW_cis(0.61,D351-D405)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/W cis n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-A Ss/Wh O2'/Ww pairing antiparallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.425.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.432.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.425.-S60.A.432.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.425.-S60.A.432.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.92,D425-D432)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.431.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.466.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.431.-S60.C.466.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.431.-S60.C.466.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.651.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.686.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.651.-S60.C.686.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.688.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.1388.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.688.-S60.G.1388.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.688.-S60.G.1388.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.55,D688-D1388)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G Ww/Ss pairing antiparallel cis 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.779.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.834.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.779.-S60.A.834.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.779.-S60.A.834.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.836.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.836.-S60.A.990.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.836.-S60.A.990.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.U.866.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.1241.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU=tSS(ClaRNA,FR3D),tWS(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.U.866.-S60.A.1241.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.53,D866-D1241)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U-A O2'/Ww O2'/Bh pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.1198.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.C.1238.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=cHW(ClaRNA),tWS(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.1198.-S60.C.1238.(tW.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.1198.-S60.C.1238.(ntWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW_cis(0.57,D1198-D1238)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.1360.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.A.1381.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(FR3D),tWS(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S60.G.1360.-S60.A.1381.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7aih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.G.220.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.G.881.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GG=tWH(DSSR),tWS(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.G.220.-1.G.881.(tWH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-G Ww/O2' pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.U.260.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.625.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU=tSS(FR3D),tWS(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.U.260.-1.A.625.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.U.260.-1.A.625.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.298.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.G.645.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.298.-1.G.645.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.298.-1.G.645.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.773.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.C.1040.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=tSS(DSSR),tWS(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.773.-1.C.1040.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.773.-1.C.1040.(ntSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-C Bs/Ss pairing parallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7dco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.C.61.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.U.80.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU=cHS(ClaRNA,DSSR,FR3D,RNAView),cHW(MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.C.61.-F.U.80.(cHS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH_cis(0.76,F80-F61),HS_cis(0.56,F61-F80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H/S cis n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-U Hw/Ws pairing parallel cis one_hbond 99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7dvq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.C.28.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.U.46.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.C.28.-F.U.46.(cHS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH_cis(0.73,F46-F28),HS_cis(0.62,F28-F46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7ez2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.G.22.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.A.207.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(MC-Annotate,RNAView),tSW(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.G.22.-N.A.207.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.G.22.-N.A.207.(ntSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A Sw/Ss pairing parallel trans one_hbond 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7lyf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.18.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.U.118.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GU=tWS(ClaRNA,DSSR,FR3D,RNAView),tWW(MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.18.-A.U.118.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS_tran(0.73,A18-A118),SW_tran(0.51,A118-A18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-U Ws/Ws pairing parallel trans one_hbond 87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7m4y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.194.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1360.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=cSS(ClaRNA,RNAView),cWS(DSSR,MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.194.-A.A.1360.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.194.-A.A.1360.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.63,A194-A1360),SS_cis(0.53,A1360-A194)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A Sw/Ww O2'/Ss pairing antiparallel cis one_hbond 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.202.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.257.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=cSS(RNAView),cSW(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.202.-A.G.257.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.202.-A.G.257.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G O2'/Bs pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.206.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.2074.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.206.-A.C.2074.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.U.207.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.385.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GU=cWS(RNAView),cWW(DSSR,MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.U.207.-A.G.385.(cWW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U-G Ws/Ws pairing antiparallel cis one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.442.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1240.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.442.-A.G.1240.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.442.-A.G.1240.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.76,A442-A1240),SS_tran(0.76,A1240-A442)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.465.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.793.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.465.-A.C.793.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.465.-A.C.793.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.629.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.2411.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.629.-A.G.2411.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.629.-A.G.2411.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.75,A2411-A629),SS_cis(0.65,A629-A2411)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.641.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.2365.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.641.-A.A.2365.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS_cis(0.82,A641-A2365),SW_cis(0.7,A2365-A641)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.691.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1348.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA=cSS(FR3D),cSW(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.691.-A.A.1348.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.691.-A.A.1348.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s/S cis !(b_s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-A O2'/Ss pairing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.697.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1631.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.697.-A.G.1631.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.697.-A.G.1631.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.64,A697-A1631),SS_cis(0.64,A1631-A697)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G Ww/Ss Ss/O2' pairing antiparallel cis one_hbond 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.756.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1977.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=cSS(FR3D,RNAView),cWS(DSSR,MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.756.-A.A.1977.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.756.-A.A.1977.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A Ss/Ww O2'/Ss pairing antiparallel cis 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.951.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.2270.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.951.-A.A.2270.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.951.-A.A.2270.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.88,A951-A2270),SS_tran(0.76,A2270-A951)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.968.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.980.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.968.-A.A.980.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.968.-A.A.980.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1026.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.2461.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1026.-A.C.2461.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1026.-A.C.2461.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1333.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1388.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1333.-A.A.1388.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1333.-A.A.1388.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.86,A1333-A1388),SS_tran(0.78,A1388-A1333)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/S tran !(b_s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-A Ss/Ss O2'/Ww pairing parallel trans one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1414.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1489.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA=cWW(MC-Annotate),tWW(DSSR,RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1414.-A.A.1489.(tWW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1414.-A.A.1489.(ntWW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/W tran I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-A Wh/Ww pairing parallel cis one_hbond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1472.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.1555.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1472.-A.C.1555.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1658.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.U.2685.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GU=tSW(MC-Annotate),tWW(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1658.-A.U.2685.(t.H)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1658.-A.U.2685.(ncSH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/W tran syn !1H(b_b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-U Sw/Wh pairing parallel trans one_hbond 92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1746.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.2856.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1746.-A.A.2856.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.1746.-A.A.2856.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.86,A1746-A2856),SS_tran(0.77,A2856-A1746)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1781.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.2584.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1781.-A.G.2584.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1781.-A.G.2584.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.1789.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1896.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.1789.-A.A.1896.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.1789.-A.A.1896.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1948.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.2556.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1948.-A.A.2556.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1948.-A.A.2556.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1962.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.2588.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1962.-A.G.2588.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.1962.-A.G.2588.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.63,A1962-A2588)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.2244.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.2271.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC=cSH(FR3D),cWH(RNAView)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.2244.-A.C.2271.(cSH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/H cis n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.2432.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.2594.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.2432.-A.A.2594.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.2432.-A.A.2594.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.84,A2432-A2594),SS_tran(0.82,A2594-A2432)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.2503.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.G.2549.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.2503.-A.G.2549.(tWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.2503.-A.G.2549.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.2527.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.2654.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.2527.-A.C.2654.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.A.2527.-A.C.2654.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.98.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.A.147.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.98.-a.A.147.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.98.-a.A.147.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.76,a98-a147)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.144.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.A.1443.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.144.-a.A.1443.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.144.-a.A.1443.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.79,a144-a1443)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.C.171.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.A.1444.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC=tSS(FR3D),tWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.C.171.-a.A.1444.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.C.171.-a.A.1444.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.228.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.A.259.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG=tSS(ClaRNA,FR3D,MC-Annotate),tWS(DSSR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.228.-a.A.259.(tSW[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.228.-a.A.259.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.81,a228-a259)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.C.500.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.A.507.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.C.500.-a.A.507.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.C.500.-a.A.507.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.C.921.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.A.1499.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.C.921.-a.A.1499.(tSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.C.921.-a.A.1499.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.1230.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.U.1361.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GU=cSS(DSSR),cSW(MC-Annotate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.1230.-a.U.1361.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.1230.-a.U.1361.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.A.1266.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.G.1309.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.A.1266.-a.G.1309.(tWS[LN])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.A.1266.-a.G.1309.(tSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_tran(0.91,a1266-a1309)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.U.1312.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.A.1357.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.U.1312.-a.A.1357.(cSW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.U.1312.-a.A.1357.(cSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7o7y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2.A.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2.A.1358.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A2.A.11.-A2.A.1358.(cWS)</t>
   </si>
   <si>
@@ -2272,21 +2266,6 @@
     <t xml:space="preserve">U-G O2P/Ww pairing</t>
   </si>
   <si>
-    <t xml:space="preserve">A2.A.60.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2.G.317.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2.A.60.-A2.G.317.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2.A.60.-A2.G.317.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.6,M317-M60),SS_cis(0.55,M60-M317)</t>
-  </si>
-  <si>
     <t xml:space="preserve">A2.A.84.</t>
   </si>
   <si>
@@ -2329,24 +2308,6 @@
     <t xml:space="preserve">A2.A.997.-A2.C.1033.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">A2.A.1035.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2.G.1858.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2.A.1035.-A2.G.1858.(cWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2.A.1035.-A2.G.1858.(ncSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS_cis(0.65,M1035-M1858)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-G Ww/Ss pairing antiparallel cis one_hbond</t>
-  </si>
-  <si>
     <t xml:space="preserve">A2.A.1201.</t>
   </si>
   <si>
@@ -2422,7 +2383,7 @@
     <t xml:space="preserve">B5.A.38.-B5.G.93.(ncSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_cis(0.71,A93-A38),SS_cis(0.7,A38-A93)</t>
+    <t xml:space="preserve">SS_cis(0.841,B5.G.93.-B5.A.38.),SS_cis(0.718,B5.A.38.-B5.G.93.)</t>
   </si>
   <si>
     <t xml:space="preserve">B5.A.42.</t>
@@ -2476,7 +2437,7 @@
     <t xml:space="preserve">B5.A.1214.-B5.G.2054.(tWS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SW_tran(0.67,A2054-A1214)</t>
+    <t xml:space="preserve">SW_tran(0.739,B5.G.2054.-B5.A.1214.),WS_tran(0.713,B5.A.1214.-B5.G.2054.)</t>
   </si>
   <si>
     <t xml:space="preserve">W/S tran syn X</t>
@@ -2497,7 +2458,7 @@
     <t xml:space="preserve">B5.A.1335.-B5.G.4110.(ncSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_cis(0.66,A1335-A4110)</t>
+    <t xml:space="preserve">SS_cis(0.676,B5.A.1335.-B5.G.4110.)</t>
   </si>
   <si>
     <t xml:space="preserve">B5.A.1478.</t>
@@ -2518,12 +2479,18 @@
     <t xml:space="preserve">B5.A.3560.</t>
   </si>
   <si>
+    <t xml:space="preserve">AC=cSS(ClaRNA,RNAView),cWS(DSSR)</t>
+  </si>
+  <si>
     <t xml:space="preserve">B5.C.1562.-B5.A.3560.(cSW)</t>
   </si>
   <si>
     <t xml:space="preserve">B5.C.1562.-B5.A.3560.(ncSS)</t>
   </si>
   <si>
+    <t xml:space="preserve">SS_cis(0.728,B5.C.1562.-B5.A.3560.),SS_cis(0.571,B5.A.3560.-B5.C.1562.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">B5.A.1634.</t>
   </si>
   <si>
@@ -2536,7 +2503,7 @@
     <t xml:space="preserve">B5.A.1634.-B5.G.4137.(cWS)</t>
   </si>
   <si>
-    <t xml:space="preserve">WS_cis(0.84,A1634-A4137),SW_cis(0.65,A4137-A1634)</t>
+    <t xml:space="preserve">WS_cis(0.873,B5.A.1634.-B5.G.4137.),SW_cis(0.82,B5.G.4137.-B5.A.1634.)</t>
   </si>
   <si>
     <t xml:space="preserve">A-G Wh/Ss Ww/O2' pairing antiparallel trans one_hbond 63</t>
@@ -2623,7 +2590,7 @@
     <t xml:space="preserve">B5.A.1882.-B5.G.4157.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.88,A1882-A4157),SS_tran(0.74,A4157-A1882)</t>
+    <t xml:space="preserve">SS_tran(0.858,B5.G.4157.-B5.A.1882.),SS_tran(0.838,B5.A.1882.-B5.G.4157.)</t>
   </si>
   <si>
     <t xml:space="preserve">B5.U.1886.</t>
@@ -2674,7 +2641,7 @@
     <t xml:space="preserve">B5.A.2225.-B5.U.2672.(ncWS)</t>
   </si>
   <si>
-    <t xml:space="preserve">WS_cis(0.72,A2225-A2672),SW_cis(0.68,A2672-A2225)</t>
+    <t xml:space="preserve">WS_cis(0.813,B5.A.2225.-B5.U.2672.),SW_cis(0.767,B5.U.2672.-B5.A.2225.)</t>
   </si>
   <si>
     <t xml:space="preserve">A-U Ww/O2' Bh/O2' pairing</t>
@@ -2692,7 +2659,7 @@
     <t xml:space="preserve">B5.G.2277.-B5.A.2370.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.87,A2277-A2370),SS_tran(0.87,A2370-A2277)</t>
+    <t xml:space="preserve">SS_tran(0.899,B5.A.2370.-B5.G.2277.),SS_tran(0.885,B5.G.2277.-B5.A.2370.)</t>
   </si>
   <si>
     <t xml:space="preserve">B5.G.2285.</t>
@@ -2707,7 +2674,7 @@
     <t xml:space="preserve">B5.G.2285.-B5.A.2355.(cSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_cis(0.78,A2355-A2285),SS_cis(0.73,A2285-A2355)</t>
+    <t xml:space="preserve">SS_cis(0.847,B5.G.2285.-B5.A.2355.),SS_cis(0.758,B5.A.2355.-B5.G.2285.)</t>
   </si>
   <si>
     <t xml:space="preserve">S/S cis syn n/a</t>
@@ -2719,7 +2686,7 @@
     <t xml:space="preserve">B5.A.2586.</t>
   </si>
   <si>
-    <t xml:space="preserve">AG=tHS(RNAView),tWS(DSSR)</t>
+    <t xml:space="preserve">AG=tHS(RNAView),tWS(ClaRNA,DSSR)</t>
   </si>
   <si>
     <t xml:space="preserve">B5.G.2357.-B5.A.2586.(tSW)</t>
@@ -2728,6 +2695,9 @@
     <t xml:space="preserve">B5.G.2357.-B5.A.2586.(ntSW)</t>
   </si>
   <si>
+    <t xml:space="preserve">WS_tran(0.501,B5.A.2586.-B5.G.2357.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">S/H tran !1H(b_b).</t>
   </si>
   <si>
@@ -2815,7 +2785,7 @@
     <t xml:space="preserve">B5.A.3545.-B5.G.4284.(cSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_cis(0.89,A4284-A3545),SS_cis(0.88,A3545-A4284)</t>
+    <t xml:space="preserve">SS_cis(0.817,B5.G.4284.-B5.A.3545.),SS_cis(0.786,B5.A.3545.-B5.G.4284.)</t>
   </si>
   <si>
     <t xml:space="preserve">A-G Ww/Ss Ss/O2' pairing antiparallel cis 55</t>
@@ -2866,7 +2836,7 @@
     <t xml:space="preserve">B5.G.4128.-B5.A.4290.(tSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">SS_tran(0.86,A4128-A4290),SS_tran(0.84,A4290-A4128)</t>
+    <t xml:space="preserve">SS_tran(0.922,B5.G.4128.-B5.A.4290.),SS_tran(0.919,B5.A.4290.-B5.G.4128.)</t>
   </si>
   <si>
     <t xml:space="preserve">B5.A.4223.</t>
@@ -2994,10 +2964,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D181" activeCellId="0" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3142,7 +3112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -3246,7 +3216,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -3275,7 +3245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -3304,7 +3274,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -3454,7 +3424,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -3506,7 +3476,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>134</v>
       </c>
@@ -3577,277 +3547,286 @@
       <c r="D22" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>175</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="B29" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>104</v>
+      <c r="E31" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>106</v>
@@ -3855,7 +3834,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>214</v>
@@ -3864,50 +3843,50 @@
         <v>215</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>224</v>
@@ -3916,24 +3895,21 @@
         <v>225</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="H35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>228</v>
@@ -3942,73 +3918,76 @@
         <v>229</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>243</v>
+        <v>14</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>244</v>
@@ -4017,275 +3996,278 @@
         <v>245</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="H39" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>104</v>
+      <c r="E40" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>132</v>
+        <v>253</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>132</v>
+        <v>274</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>307</v>
@@ -4294,7 +4276,7 @@
         <v>308</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>309</v>
@@ -4306,279 +4288,270 @@
         <v>311</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="I50" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>315</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>316</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>114</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>324</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>200</v>
+        <v>332</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H54" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>341</v>
+        <v>40</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>344</v>
+        <v>44</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>312</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I59" s="2" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="G60" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>132</v>
@@ -4586,62 +4559,71 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>104</v>
+      <c r="E61" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I61" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>376</v>
+        <v>155</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>377</v>
@@ -4649,45 +4631,42 @@
       <c r="F63" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="G63" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="H63" s="2" t="s">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="H64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>384</v>
@@ -4696,7 +4675,7 @@
         <v>385</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>386</v>
@@ -4708,116 +4687,119 @@
         <v>388</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>278</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>200</v>
+        <v>396</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I68" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>405</v>
+        <v>216</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G69" s="2" t="s">
         <v>408</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>409</v>
@@ -4826,7 +4808,7 @@
         <v>410</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>411</v>
@@ -4838,15 +4820,15 @@
         <v>413</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>414</v>
@@ -4855,7 +4837,7 @@
         <v>415</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>416</v>
@@ -4863,288 +4845,288 @@
       <c r="F71" s="2" t="s">
         <v>417</v>
       </c>
+      <c r="G71" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="H71" s="2" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>223</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>160</v>
+        <v>421</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>114</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>200</v>
+        <v>427</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>190</v>
+        <v>431</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>433</v>
+        <v>44</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="B76" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>444</v>
+        <v>188</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>447</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>450</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>256</v>
+        <v>465</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>466</v>
+        <v>196</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>470</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G81" s="2" t="s">
         <v>475</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>476</v>
@@ -5153,128 +5135,125 @@
         <v>477</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E82" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="H82" s="2" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>482</v>
       </c>
+      <c r="G83" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="H83" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>295</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>350</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>488</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="H85" s="2" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>496</v>
@@ -5285,22 +5264,22 @@
       <c r="D87" s="2" t="s">
         <v>498</v>
       </c>
+      <c r="E87" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>501</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>502</v>
@@ -5311,277 +5290,277 @@
       <c r="D88" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="H88" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="H89" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>516</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>522</v>
-      </c>
       <c r="H91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>501</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="E92" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="H92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>531</v>
       </c>
+      <c r="G93" s="2" t="s">
+        <v>532</v>
+      </c>
       <c r="H93" s="2" t="s">
-        <v>132</v>
+        <v>533</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="I94" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="I94" s="2" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>544</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G95" s="2" t="s">
         <v>545</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>539</v>
+        <v>67</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>551</v>
       </c>
+      <c r="G96" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="H96" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="B98" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="G98" s="2" t="s">
         <v>566</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>567</v>
@@ -5589,7 +5568,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>568</v>
@@ -5598,122 +5577,125 @@
         <v>569</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="H99" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>573</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="H100" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I100" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F100" s="2" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>580</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="I101" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="H102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="E103" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>590</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>295</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>591</v>
@@ -5722,120 +5704,117 @@
         <v>592</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>563</v>
+        <v>314</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>593</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>598</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="G105" s="2" t="s">
         <v>599</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>602</v>
+        <v>92</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>605</v>
+        <v>96</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>92</v>
+        <v>610</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>615</v>
+        <v>83</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>616</v>
@@ -5843,16 +5822,19 @@
       <c r="F108" s="2" t="s">
         <v>617</v>
       </c>
+      <c r="G108" s="2" t="s">
+        <v>618</v>
+      </c>
       <c r="H108" s="2" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>619</v>
@@ -5861,7 +5843,7 @@
         <v>620</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>621</v>
@@ -5869,172 +5851,172 @@
       <c r="F109" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>623</v>
-      </c>
       <c r="H109" s="2" t="s">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>60</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="H110" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="H110" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>631</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>132</v>
+        <v>632</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>40</v>
+        <v>636</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>642</v>
+        <v>104</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>643</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>645</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="E114" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>648</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>649</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>651</v>
+        <v>40</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>655</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>654</v>
+        <v>44</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>656</v>
@@ -6043,7 +6025,7 @@
         <v>657</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>658</v>
@@ -6051,68 +6033,68 @@
       <c r="F116" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>660</v>
-      </c>
       <c r="H116" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="H117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>668</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>669</v>
@@ -6121,7 +6103,7 @@
         <v>670</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>671</v>
@@ -6129,94 +6111,91 @@
       <c r="F119" s="2" t="s">
         <v>672</v>
       </c>
+      <c r="G119" s="2" t="s">
+        <v>673</v>
+      </c>
       <c r="H119" s="2" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="G120" s="2" t="s">
         <v>677</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>680</v>
+        <v>40</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>681</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>683</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>40</v>
+        <v>421</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="G122" s="2" t="s">
         <v>687</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>638</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>688</v>
@@ -6225,7 +6204,7 @@
         <v>689</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>430</v>
+        <v>216</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>690</v>
@@ -6234,12 +6213,15 @@
         <v>691</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>692</v>
@@ -6248,7 +6230,7 @@
         <v>693</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>694</v>
@@ -6256,117 +6238,114 @@
       <c r="F124" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="H124" s="2" t="s">
-        <v>113</v>
+      <c r="G124" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>455</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>459</v>
+        <v>704</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>712</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>106</v>
+        <v>633</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="G128" s="2" t="s">
         <v>716</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>638</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>717</v>
@@ -6375,7 +6354,7 @@
         <v>718</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>719</v>
@@ -6389,7 +6368,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>721</v>
@@ -6398,30 +6377,30 @@
         <v>722</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>728</v>
@@ -6429,175 +6408,172 @@
       <c r="F131" s="2" t="s">
         <v>729</v>
       </c>
+      <c r="G131" s="2" t="s">
+        <v>730</v>
+      </c>
       <c r="I131" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>713</v>
+        <v>249</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>560</v>
+        <v>736</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>253</v>
+        <v>739</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>193</v>
+        <v>744</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>113</v>
+        <v>746</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>197</v>
+        <v>747</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>746</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>747</v>
+        <v>750</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>751</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>748</v>
+        <v>113</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>755</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>114</v>
+        <v>758</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>757</v>
+        <v>104</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>759</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>762</v>
+        <v>441</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>763</v>
@@ -6606,110 +6582,107 @@
         <v>764</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>765</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F139" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>768</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>132</v>
+        <v>769</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>92</v>
+        <v>772</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>774</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>775</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>447</v>
+        <v>779</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>781</v>
+        <v>104</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>783</v>
@@ -6718,21 +6691,27 @@
         <v>784</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>787</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>28</v>
+        <v>287</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>788</v>
@@ -6741,47 +6720,47 @@
         <v>789</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E144" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>791</v>
-      </c>
       <c r="H144" s="2" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>792</v>
+        <v>292</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="F145" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F145" s="2" t="s">
+      <c r="H145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>796</v>
@@ -6790,7 +6769,7 @@
         <v>797</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>286</v>
+        <v>49</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>798</v>
@@ -6798,791 +6777,719 @@
       <c r="F146" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="H146" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H146" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>104</v>
+      <c r="E147" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>805</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>294</v>
+        <v>806</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>295</v>
+        <v>807</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>444</v>
+        <v>270</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>812</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>808</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>819</v>
+        <v>159</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>273</v>
+        <v>825</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>114</v>
+        <v>828</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>828</v>
+        <v>104</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>341</v>
+        <v>49</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>164</v>
+        <v>836</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>842</v>
+        <v>646</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>845</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>132</v>
+        <v>846</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>847</v>
+        <v>132</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>850</v>
+        <v>40</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>853</v>
+        <v>44</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>651</v>
+        <v>859</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>861</v>
+        <v>865</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>866</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="H160" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H161" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I160" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>872</v>
-      </c>
       <c r="I161" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>876</v>
+        <v>155</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>878</v>
+        <v>883</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>884</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>885</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>52</v>
+        <v>892</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>40</v>
+        <v>896</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>44</v>
+        <v>899</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>896</v>
+        <v>14</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>463</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>899</v>
+        <v>49</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>902</v>
+        <v>14</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>903</v>
+        <v>106</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>907</v>
+        <v>104</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>909</v>
+        <v>14</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>910</v>
+        <v>106</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>913</v>
+        <v>12</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>914</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>49</v>
+        <v>918</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>106</v>
+        <v>922</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>104</v>
+        <v>925</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>926</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>14</v>
+        <v>928</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>106</v>
+        <v>929</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>928</v>
+        <v>40</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>932</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>935</v>
+        <v>216</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>938</v>
+        <v>113</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
